--- a/biology/Botanique/Uncaria/Uncaria.xlsx
+++ b/biology/Botanique/Uncaria/Uncaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uncaria est un genre de plantes à fleurs de la famille des Rubiaceae dont l'espèce type est Uncaria guianensis (Aubl.) J.F. Gmel.. Ce sont des lianes tropicales. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Uncaria vient du latin uncus signifiant "crochet", "ongle" ou "griffe", en référence aux crochets, dérivés de branches réduites, servant à s'accrocher dans la végétation, chez l'espèce type[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Uncaria vient du latin uncus signifiant "crochet", "ongle" ou "griffe", en référence aux crochets, dérivés de branches réduites, servant à s'accrocher dans la végétation, chez l'espèce type.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On accepte à l'heure actuelle une quarantaine d'espèces :
 Uncaria acida (Hunter) Roxb. - (Malaisie)
@@ -611,7 +627,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La résine d'Uncaria gambir est utilisé en Asie pour produire du Cachou.
 Les tiges griffues de plusieurs espèces d'Uncaria sont utilisées en pharmacopée traditionnelle chinoise sous le nom 钩藤 Gōu Téng, incluant : U. rhynchophylla, U. macrophylla, U. hirsuta, U. sinensis, U. sessilifructus.
